--- a/HARIHAR/Harihar Kishor Pandey.xlsx
+++ b/HARIHAR/Harihar Kishor Pandey.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB-REPO\Personal\HARIHAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB-REPO\Personal-Repo\HARIHAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2D8382-247A-482B-A184-2A690F8A99DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3AB316-3977-4F26-AB61-964F54863D99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="7" xr2:uid="{EE559F27-3060-42D0-A474-945E051E05EE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="6" xr2:uid="{EE559F27-3060-42D0-A474-945E051E05EE}"/>
   </bookViews>
   <sheets>
     <sheet name="लोन" sheetId="1" r:id="rId1"/>
@@ -186,7 +186,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="148">
   <si>
     <t>दिनांक</t>
   </si>
@@ -630,6 +630,12 @@
   </si>
   <si>
     <t>AS ON TODAY 31 DEC 2023</t>
+  </si>
+  <si>
+    <t>PERVIOUS</t>
+  </si>
+  <si>
+    <t>UNIT</t>
   </si>
 </sst>
 </file>
@@ -1427,7 +1433,7 @@
     <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -1642,133 +1648,132 @@
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="25" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="26" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="27" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="20% - Accent1" xfId="8" builtinId="30"/>
@@ -2154,23 +2159,23 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="104" t="s">
+      <c r="A2" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="106" t="s">
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="107"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -2386,10 +2391,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="104" t="s">
+      <c r="A8" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="104"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="4">
         <f>SUM(C4:C7)</f>
         <v>32000</v>
@@ -2436,40 +2441,40 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="16" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="110" t="s">
+      <c r="A9" s="119" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111">
+      <c r="B9" s="120"/>
+      <c r="C9" s="120">
         <f>SUM(C8:M8)</f>
         <v>64000</v>
       </c>
-      <c r="D9" s="111"/>
-      <c r="E9" s="112"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="121"/>
     </row>
     <row r="10" spans="1:13" s="16" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114">
+      <c r="B10" s="123"/>
+      <c r="C10" s="123">
         <f>SUM(C15:C32)</f>
         <v>55757</v>
       </c>
-      <c r="D10" s="114"/>
-      <c r="E10" s="115"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="124"/>
     </row>
     <row r="11" spans="1:13" s="16" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="116" t="s">
+      <c r="A11" s="125" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117">
+      <c r="B11" s="126"/>
+      <c r="C11" s="126">
         <f>C9-C10</f>
         <v>8243</v>
       </c>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
+      <c r="D11" s="126"/>
+      <c r="E11" s="127"/>
     </row>
     <row r="12" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="12"/>
@@ -2479,11 +2484,11 @@
       <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="105" t="s">
+      <c r="A13" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="105"/>
-      <c r="C13" s="105"/>
+      <c r="B13" s="114"/>
+      <c r="C13" s="114"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
@@ -2681,10 +2686,10 @@
       <c r="C32" s="17"/>
     </row>
     <row r="33" spans="1:3" s="15" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="108" t="s">
+      <c r="A33" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="109"/>
+      <c r="B33" s="118"/>
       <c r="C33" s="14">
         <f>SUM(C15:C32)</f>
         <v>55757</v>
@@ -2727,11 +2732,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="128" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
@@ -2877,10 +2882,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A15" s="120" t="s">
+      <c r="A15" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="120"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="10">
         <f>SUM(C3:C14)</f>
         <v>46324</v>
@@ -3007,24 +3012,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="134" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="F1" s="121">
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="F1" s="130">
         <f>D8-D16</f>
         <v>19046</v>
       </c>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
+      <c r="G1" s="130"/>
+      <c r="H1" s="130"/>
     </row>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="124" t="s">
+      <c r="B2" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
     </row>
     <row r="3" spans="2:8" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B3" s="58" t="s">
@@ -3082,21 +3087,21 @@
       </c>
     </row>
     <row r="8" spans="2:8" s="39" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="122" t="s">
+      <c r="B8" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="123"/>
+      <c r="C8" s="132"/>
       <c r="D8" s="63">
         <f>SUM(D4:D7)</f>
         <v>34000</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="133" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="58" t="s">
@@ -3154,10 +3159,10 @@
       </c>
     </row>
     <row r="16" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="123"/>
+      <c r="C16" s="132"/>
       <c r="D16" s="63">
         <f>SUM(D12:D15)</f>
         <v>14954</v>
@@ -3203,18 +3208,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
     </row>
     <row r="2" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
@@ -4073,8 +4078,8 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4093,18 +4098,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="127"/>
-      <c r="I1" s="127"/>
-      <c r="J1" s="127"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
     </row>
     <row r="2" spans="1:12" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="23" t="s">
@@ -4280,10 +4285,10 @@
       <c r="J7" s="31" t="s">
         <v>69</v>
       </c>
-      <c r="K7" s="128" t="s">
+      <c r="K7" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="L7" s="129"/>
+      <c r="L7" s="138"/>
     </row>
     <row r="8" spans="1:12" s="75" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="34">
@@ -4929,10 +4934,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25BC97D9-76E9-47C5-B076-59B4CE49BA55}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:G8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5068,6 +5073,40 @@
         <v>130</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11">
+        <v>2493</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12">
+        <v>2341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>147</v>
+      </c>
+      <c r="G13">
+        <f>G11-G12</f>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F14" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="G14" s="39">
+        <f>G13*7</f>
+        <v>1064</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5077,26 +5116,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02A9B8EB-3706-46F9-873E-B4F00BDB42C9}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="310" zoomScaleNormal="310" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="138" t="s">
+      <c r="B1" s="105" t="s">
         <v>132</v>
       </c>
-      <c r="C1" s="138" t="s">
+      <c r="C1" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="D1" s="138" t="s">
+      <c r="D1" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="E1" s="139" t="s">
+      <c r="E1" s="106" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5113,7 +5152,7 @@
       <c r="D2" s="57">
         <v>1918</v>
       </c>
-      <c r="E2" s="140">
+      <c r="E2" s="107">
         <v>2000</v>
       </c>
     </row>
@@ -5130,7 +5169,7 @@
       <c r="D3" s="57">
         <v>1036</v>
       </c>
-      <c r="E3" s="140">
+      <c r="E3" s="107">
         <v>1410</v>
       </c>
     </row>
@@ -5147,15 +5186,15 @@
       <c r="D4" s="57">
         <v>693</v>
       </c>
-      <c r="E4" s="140">
+      <c r="E4" s="107">
         <v>847</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="141" t="s">
+      <c r="A5" s="145" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="136"/>
+      <c r="B5" s="146"/>
       <c r="C5" s="57">
         <f>SUM(C2:C4)</f>
         <v>18000</v>
@@ -5164,108 +5203,99 @@
         <f>SUM(D2:D4)</f>
         <v>3647</v>
       </c>
-      <c r="E5" s="140">
+      <c r="E5" s="107">
         <f>SUM(E2:E4)</f>
         <v>4257</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="69"/>
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="142"/>
+      <c r="E6" s="108"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="143" t="s">
+      <c r="A7" s="147" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="134"/>
-      <c r="C7" s="134"/>
-      <c r="D7" s="134"/>
-      <c r="E7" s="140">
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="107">
         <v>20000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="143" t="s">
+      <c r="A8" s="147" t="s">
         <v>140</v>
       </c>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
-      <c r="D8" s="134"/>
-      <c r="E8" s="140">
+      <c r="B8" s="148"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="107">
         <v>4257</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="149" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="135"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="145">
+      <c r="B9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="109">
         <f>SUM(E7:E8)</f>
         <v>24257</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="69"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="142"/>
+      <c r="E10" s="108"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="146" t="s">
+      <c r="A11" s="139" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="132"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="147">
+      <c r="B11" s="140"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="110">
         <v>18000</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="139" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="147">
+      <c r="B12" s="140"/>
+      <c r="C12" s="140"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="110">
         <v>3647</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="148" t="s">
+      <c r="A13" s="141" t="s">
         <v>144</v>
       </c>
-      <c r="B13" s="133"/>
-      <c r="C13" s="133"/>
-      <c r="D13" s="133"/>
-      <c r="E13" s="149">
+      <c r="B13" s="142"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="111">
         <f>SUM(E11:E12)</f>
         <v>21647</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="69"/>
-      <c r="B14" s="131"/>
-      <c r="C14" s="131"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="142"/>
+      <c r="E14" s="108"/>
     </row>
     <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="150" t="s">
+      <c r="A15" s="143" t="s">
         <v>145</v>
       </c>
-      <c r="B15" s="151"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="152">
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="112">
         <f>E9-E13</f>
         <v>2610</v>
       </c>
@@ -5291,7 +5321,7 @@
   <dimension ref="B2:F10"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5350,7 +5380,7 @@
       <c r="C5" s="41">
         <v>72</v>
       </c>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="151" t="s">
         <v>126</v>
       </c>
       <c r="E5" s="98">
@@ -5367,7 +5397,7 @@
       <c r="C6" s="41">
         <v>99</v>
       </c>
-      <c r="D6" s="130"/>
+      <c r="D6" s="151"/>
       <c r="E6" s="99">
         <f>E4-E5</f>
         <v>29</v>
